--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,42 +49,30 @@
     <t>died</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,13 +82,16 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
@@ -109,87 +100,87 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -586,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -647,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,16 +706,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,16 +756,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -797,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -839,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7241379310344828</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6986301369863014</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5526315789473685</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.8333333333333334</v>
@@ -997,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5128205128205128</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4871794871794872</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8083333333333333</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3758389261744967</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3313953488372093</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2962962962962963</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,45 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>57</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7450980392156863</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,36 +1303,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>70</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>0.7446808510638298</v>
@@ -1392,291 +1332,243 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1825396825396825</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.71875</v>
+      </c>
+      <c r="L18">
+        <v>115</v>
+      </c>
+      <c r="M18">
+        <v>115</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L19">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L20">
+        <v>31</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L21">
+        <v>59</v>
+      </c>
+      <c r="M21">
+        <v>59</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.6240208877284595</v>
+      </c>
+      <c r="L22">
+        <v>239</v>
+      </c>
+      <c r="M22">
+        <v>239</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.5764705882352941</v>
+      </c>
+      <c r="L24">
+        <v>196</v>
+      </c>
+      <c r="M24">
+        <v>196</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D18">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>206</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7375</v>
-      </c>
-      <c r="L18">
-        <v>118</v>
-      </c>
-      <c r="M18">
-        <v>118</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.1018766756032172</v>
-      </c>
-      <c r="C19">
-        <v>38</v>
-      </c>
-      <c r="D19">
-        <v>38</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>335</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L19">
-        <v>78</v>
-      </c>
-      <c r="M19">
-        <v>78</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L20">
-        <v>64</v>
-      </c>
-      <c r="M20">
-        <v>64</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L21">
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <v>24</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.625</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.62</v>
-      </c>
-      <c r="L23">
-        <v>31</v>
-      </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.6057441253263708</v>
-      </c>
-      <c r="L24">
-        <v>232</v>
-      </c>
-      <c r="M24">
-        <v>232</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.5676470588235294</v>
-      </c>
-      <c r="L25">
-        <v>193</v>
-      </c>
-      <c r="M25">
-        <v>193</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.5288135593220339</v>
-      </c>
-      <c r="L26">
-        <v>156</v>
-      </c>
-      <c r="M26">
-        <v>156</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="K27">
         <v>0.5280898876404494</v>
@@ -1700,18 +1592,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.4931506849315068</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1723,15 +1615,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.4883720930232558</v>
+        <v>0.525</v>
       </c>
       <c r="L29">
         <v>21</v>
@@ -1749,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.4769874476987448</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L30">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1775,15 +1667,15 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4523809523809524</v>
+        <v>0.475</v>
       </c>
       <c r="L31">
         <v>19</v>
@@ -1801,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4487179487179487</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1827,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4444444444444444</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1853,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4153846153846154</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1879,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.390625</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1905,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3142857142857143</v>
+        <v>0.40625</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1931,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.09569377990430622</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1957,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>378</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.09134615384615384</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1988,16 +1880,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.05369127516778523</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2009,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>846</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.03995560488346282</v>
+        <v>0.04921700223713647</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2035,137 +1927,137 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>865</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.03389830508474576</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>627</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.03117782909930716</v>
+        <v>0.02927580893682588</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>839</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.02477793361383824</v>
+        <v>0.02306805074971165</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2086</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.01031925185424057</v>
+        <v>0.01868285847734703</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N44">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0.16</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3069</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.005954246317768724</v>
+        <v>0.009035172636334301</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N45">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="O45">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>3172</v>
+        <v>3071</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,16 +43,22 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
@@ -73,6 +79,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,133 +91,151 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>energy</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>care</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -566,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,16 +683,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7157534246575342</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6551724137931034</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.702054794520548</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3758389261744967</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3275193798449613</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C11">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>347</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.84375</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2987012987012987</v>
+        <v>0.36</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2857142857142857</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1825396825396825</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,89 +1262,137 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.09919571045576407</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>137</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>336</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K15">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.2111111111111111</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+      <c r="L16">
+        <v>96</v>
+      </c>
+      <c r="M16">
+        <v>96</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="C17">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>213</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
         <v>0.7931034482758621</v>
       </c>
-      <c r="L15">
+      <c r="L17">
         <v>46</v>
       </c>
-      <c r="M15">
+      <c r="M17">
         <v>46</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>0.7452830188679245</v>
-      </c>
-      <c r="L16">
-        <v>79</v>
-      </c>
-      <c r="M16">
-        <v>79</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L17">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1332,408 +1407,432 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.1072386058981233</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>333</v>
+      </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L19">
+        <v>48</v>
+      </c>
+      <c r="M19">
+        <v>48</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L20">
+        <v>38</v>
+      </c>
+      <c r="M20">
+        <v>38</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L21">
+        <v>78</v>
+      </c>
+      <c r="M21">
+        <v>78</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>0.7125</v>
+      </c>
+      <c r="L22">
+        <v>114</v>
+      </c>
+      <c r="M22">
+        <v>114</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L24">
+        <v>64</v>
+      </c>
+      <c r="M24">
+        <v>64</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>0.66</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>33</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>0.6057441253263708</v>
+      </c>
+      <c r="L28">
+        <v>232</v>
+      </c>
+      <c r="M28">
+        <v>232</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>0.5842696629213483</v>
+      </c>
+      <c r="L29">
+        <v>52</v>
+      </c>
+      <c r="M29">
+        <v>52</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
       </c>
-      <c r="K18">
-        <v>0.71875</v>
-      </c>
-      <c r="L18">
-        <v>115</v>
-      </c>
-      <c r="M18">
-        <v>115</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
-      <c r="M19">
-        <v>44</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="L20">
-        <v>31</v>
-      </c>
-      <c r="M20">
-        <v>31</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.6276595744680851</v>
-      </c>
-      <c r="L21">
-        <v>59</v>
-      </c>
-      <c r="M21">
-        <v>59</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>0.6240208877284595</v>
-      </c>
-      <c r="L22">
-        <v>239</v>
-      </c>
-      <c r="M22">
-        <v>239</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L23">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>0.5676470588235294</v>
+      </c>
+      <c r="L30">
+        <v>193</v>
+      </c>
+      <c r="M30">
+        <v>193</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31">
+        <v>0.55</v>
+      </c>
+      <c r="L31">
+        <v>22</v>
+      </c>
+      <c r="M31">
+        <v>22</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>23</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>20</v>
-      </c>
-      <c r="M23">
-        <v>20</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>0.5764705882352941</v>
-      </c>
-      <c r="L24">
-        <v>196</v>
-      </c>
-      <c r="M24">
-        <v>196</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L25">
-        <v>28</v>
-      </c>
-      <c r="M25">
-        <v>28</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="L26">
-        <v>24</v>
-      </c>
-      <c r="M26">
-        <v>24</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="L27">
-        <v>47</v>
-      </c>
-      <c r="M27">
-        <v>47</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="L28">
-        <v>155</v>
-      </c>
-      <c r="M28">
-        <v>155</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29">
-        <v>0.525</v>
-      </c>
-      <c r="L29">
-        <v>21</v>
-      </c>
-      <c r="M29">
-        <v>21</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30">
-        <v>0.4923076923076923</v>
-      </c>
-      <c r="L30">
-        <v>32</v>
-      </c>
-      <c r="M30">
-        <v>32</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31">
-        <v>0.475</v>
-      </c>
-      <c r="L31">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>19</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K32">
-        <v>0.4728033472803347</v>
-      </c>
-      <c r="L32">
-        <v>113</v>
-      </c>
-      <c r="M32">
-        <v>113</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.4230769230769231</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1745,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.4222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1771,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.410958904109589</v>
+        <v>0.4847457627118644</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1797,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1823,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.2714285714285714</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1849,21 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.09569377990430622</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1875,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>378</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.0889423076923077</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1901,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>379</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.04921700223713647</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1927,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>850</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.04439511653718091</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1953,47 +2052,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>861</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.02927580893682588</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>630</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.02306805074971165</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2005,59 +2104,215 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>847</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.01868285847734703</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L44">
         <v>40</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2101</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.009035172636334301</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>3071</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46">
+        <v>0.05033557046979865</v>
+      </c>
+      <c r="L46">
+        <v>45</v>
+      </c>
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>34</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48">
+        <v>0.03271028037383177</v>
+      </c>
+      <c r="L48">
+        <v>70</v>
+      </c>
+      <c r="M48">
+        <v>73</v>
+      </c>
+      <c r="N48">
+        <v>0.96</v>
+      </c>
+      <c r="O48">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49">
+        <v>0.02998846597462514</v>
+      </c>
+      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50">
+        <v>0.01642512077294686</v>
+      </c>
+      <c r="L50">
+        <v>51</v>
+      </c>
+      <c r="M50">
+        <v>53</v>
+      </c>
+      <c r="N50">
+        <v>0.96</v>
+      </c>
+      <c r="O50">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51">
+        <v>0.007194244604316547</v>
+      </c>
+      <c r="L51">
+        <v>23</v>
+      </c>
+      <c r="M51">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>0.85</v>
+      </c>
+      <c r="O51">
+        <v>0.15</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
